--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,72 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>sorry</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>stupid</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>behind</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -145,58 +133,61 @@
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>dilemma</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -557,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9711538461538461</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -676,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -726,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,49 +817,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="L7">
+        <v>44</v>
+      </c>
+      <c r="M7">
+        <v>44</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>13</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7">
-        <v>0.7543859649122807</v>
-      </c>
-      <c r="L7">
-        <v>43</v>
-      </c>
-      <c r="M7">
-        <v>43</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.7466666666666667</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8181818181818182</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.6923076923076923</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.6896551724137931</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,38 +1067,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.675</v>
       </c>
       <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="L12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1118,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.6</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7058823529411765</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.5185185185185185</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L14">
         <v>14</v>
@@ -1218,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.675</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.3939393939393939</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.65</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.3611111111111111</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.625</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.3541666666666667</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6170212765957447</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.2439024390243902</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6014492753623188</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C19">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.2213114754098361</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L19">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>855</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,38 +1467,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20">
+        <v>0.1408450704225352</v>
+      </c>
+      <c r="L20">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20">
-        <v>0.2033898305084746</v>
-      </c>
-      <c r="L20">
-        <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1518,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5769230769230769</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.1058823529411765</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L21">
         <v>9</v>
@@ -1568,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,38 +1567,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5652173913043478</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="L22">
         <v>13</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>13</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22">
-        <v>0.0286144578313253</v>
-      </c>
-      <c r="L22">
-        <v>19</v>
-      </c>
-      <c r="M22">
-        <v>19</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1618,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>645</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,13 +1617,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5384615384615384</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1644,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.02592592592592593</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1668,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1676,13 +1667,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1694,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.02272727272727273</v>
+        <v>0.0286144578313253</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1718,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>602</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1726,13 +1717,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4571428571428571</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1744,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.01612903225806452</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1768,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1708</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,7 +1767,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3928571428571428</v>
+        <v>0.03678929765886288</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -1794,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K26">
-        <v>0.01280409731113956</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1818,111 +1809,33 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>771</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="C27">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
-      </c>
-      <c r="D29">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.05369127516778523</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
-      <c r="E30">
-        <v>0.06</v>
-      </c>
-      <c r="F30">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>282</v>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>0.01555299539170507</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>27</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1709</v>
       </c>
     </row>
   </sheetData>
